--- a/Pandas.xlsx
+++ b/Pandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alunodev10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEAAF316-AF4D-4E88-8B01-EE5B5274B6F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B36697-0330-4501-8FDB-2472292E4BDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{FEA96876-0176-4A1A-933E-41E694A4F616}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,14 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +172,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77896838-E48E-4181-99D0-087373085E40}">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +568,12 @@
         <v>50</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
